--- a/SchoolManagementSystem/export/excel/truong.xlsx
+++ b/SchoolManagementSystem/export/excel/truong.xlsx
@@ -6,16 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Schools" r:id="rId3" sheetId="1"/>
+    <sheet name="truong.xlsx" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -23,7 +20,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Number of students</t>
+    <t>Number of Teacher</t>
+  </si>
+  <si>
+    <t>Number of Student</t>
   </si>
   <si>
     <t>Address</t>
@@ -93,7 +93,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -101,21 +101,25 @@
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.72265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.4296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.7890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.71484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.4296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
     </row>
@@ -127,9 +131,12 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
         <v>2000.0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -141,9 +148,12 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2500.0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
